--- a/Gantt chart.xlsx
+++ b/Gantt chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ehkeller Hein\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e328ae80360b0234/Documents/GitHub/Group2222/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975BF609-D33F-4949-8E6A-8020051D9F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="13_ncr:1_{975BF609-D33F-4949-8E6A-8020051D9F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD749769-B859-4421-B72D-F516FC662821}"/>
   <bookViews>
-    <workbookView xWindow="5895" yWindow="1575" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -656,6 +656,15 @@
     <xf numFmtId="9" fontId="12" fillId="9" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="9" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="10" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -679,15 +688,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="9" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1100,8 +1100,8 @@
   </sheetPr>
   <dimension ref="B1:BO39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AL26" sqref="AL26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="BD17" sqref="BD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1128,13 +1128,13 @@
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="19" t="s">
         <v>5</v>
       </c>
@@ -1142,37 +1142,37 @@
         <v>1</v>
       </c>
       <c r="J2" s="11"/>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="33"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36"/>
       <c r="P2" s="12"/>
-      <c r="Q2" s="31" t="s">
+      <c r="Q2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="33"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="36"/>
       <c r="U2" s="13"/>
-      <c r="V2" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="37"/>
+      <c r="V2" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="40"/>
       <c r="Z2" s="14"/>
-      <c r="AA2" s="35" t="s">
+      <c r="AA2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="37"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="40"/>
       <c r="AH2" s="15"/>
       <c r="AI2" s="17" t="s">
         <v>4</v>
@@ -1186,22 +1186,22 @@
       <c r="AP2" s="18"/>
     </row>
     <row r="3" spans="2:67" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="33" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="16" t="s">
@@ -1228,12 +1228,12 @@
       <c r="AA3" s="6"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="39"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1605,24 +1605,34 @@
       <c r="D14" s="21">
         <v>18</v>
       </c>
-      <c r="F14" s="21"/>
+      <c r="E14" s="30">
+        <v>25</v>
+      </c>
+      <c r="F14" s="21">
+        <v>35</v>
+      </c>
       <c r="G14" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="40">
+      <c r="C15" s="30">
         <v>25</v>
       </c>
       <c r="D15" s="21">
         <v>2</v>
       </c>
-      <c r="E15" s="21"/>
+      <c r="E15" s="21">
+        <v>25</v>
+      </c>
+      <c r="F15" s="30">
+        <v>2</v>
+      </c>
       <c r="G15" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1635,10 +1645,14 @@
       <c r="D16" s="21">
         <v>2</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
+      <c r="E16" s="21">
+        <v>27</v>
+      </c>
+      <c r="F16" s="21">
+        <v>2</v>
+      </c>
       <c r="G16" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1651,10 +1665,14 @@
       <c r="D17" s="21">
         <v>2</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
+      <c r="E17" s="21">
+        <v>29</v>
+      </c>
+      <c r="F17" s="21">
+        <v>2</v>
+      </c>
       <c r="G17" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1667,10 +1685,14 @@
       <c r="D18" s="21">
         <v>2</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
+      <c r="E18" s="21">
+        <v>31</v>
+      </c>
+      <c r="F18" s="21">
+        <v>2</v>
+      </c>
       <c r="G18" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1683,10 +1705,14 @@
       <c r="D19" s="21">
         <v>2</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
+      <c r="E19" s="21">
+        <v>33</v>
+      </c>
+      <c r="F19" s="21">
+        <v>2</v>
+      </c>
       <c r="G19" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1699,10 +1725,14 @@
       <c r="D20" s="21">
         <v>2</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
+      <c r="E20" s="21">
+        <v>35</v>
+      </c>
+      <c r="F20" s="21">
+        <v>2</v>
+      </c>
       <c r="G20" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1715,10 +1745,14 @@
       <c r="D21" s="21">
         <v>2</v>
       </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
+      <c r="E21" s="21">
+        <v>37</v>
+      </c>
+      <c r="F21" s="21">
+        <v>2</v>
+      </c>
       <c r="G21" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1731,10 +1765,14 @@
       <c r="D22" s="21">
         <v>2</v>
       </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
+      <c r="E22" s="21">
+        <v>39</v>
+      </c>
+      <c r="F22" s="21">
+        <v>2</v>
+      </c>
       <c r="G22" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1747,10 +1785,14 @@
       <c r="D23" s="21">
         <v>2</v>
       </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
+      <c r="E23" s="21">
+        <v>41</v>
+      </c>
+      <c r="F23" s="21">
+        <v>3</v>
+      </c>
       <c r="G23" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1763,10 +1805,14 @@
       <c r="D24" s="21">
         <v>6</v>
       </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
+      <c r="E24" s="21">
+        <v>44</v>
+      </c>
+      <c r="F24" s="21">
+        <v>5</v>
+      </c>
       <c r="G24" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1779,10 +1825,14 @@
       <c r="D25" s="21">
         <v>2</v>
       </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
+      <c r="E25" s="21">
+        <v>49</v>
+      </c>
+      <c r="F25" s="21">
+        <v>2</v>
+      </c>
       <c r="G25" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1795,10 +1845,14 @@
       <c r="D26" s="21">
         <v>4</v>
       </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
+      <c r="E26" s="21">
+        <v>51</v>
+      </c>
+      <c r="F26" s="21">
+        <v>3</v>
+      </c>
       <c r="G26" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1811,10 +1865,14 @@
       <c r="D27" s="21">
         <v>5</v>
       </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
+      <c r="E27" s="21">
+        <v>54</v>
+      </c>
+      <c r="F27" s="21">
+        <v>4</v>
+      </c>
       <c r="G27" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1966,17 +2024,17 @@
     <row r="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="AA2:AG2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="AA2:AG2"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:BO4">
     <cfRule type="expression" dxfId="8" priority="8">
